--- a/documents/接口文档.xlsx
+++ b/documents/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="收藏" sheetId="6" r:id="rId6"/>
     <sheet name="发布" sheetId="7" r:id="rId7"/>
     <sheet name="审查" sheetId="8" r:id="rId8"/>
+    <sheet name="审查结果" sheetId="9" r:id="rId9"/>
+    <sheet name="按类型选择故事" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +398,122 @@
   </si>
   <si>
     <t>audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事id号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit/result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/audit/result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事id号,多个用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果，对应id号，多个用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 通过，1 未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/type/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,15 +870,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -819,7 +938,209 @@
         <v>93</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -828,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -979,6 +1300,20 @@
       </c>
       <c r="D13" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="D15" sqref="A2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1063,50 +1398,50 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1114,42 +1449,67 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,7 +1521,7 @@
   <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1655,7 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1788,7 @@
   <dimension ref="A4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1557,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1698,6 +2058,20 @@
       </c>
       <c r="F12" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +2090,7 @@
   <dimension ref="A4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="F11" sqref="A4:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1840,4 +2214,129 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/接口文档.xlsx
+++ b/documents/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 通过，1 未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>createTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +510,10 @@
   </si>
   <si>
     <t>startIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 审核中，1 通过，2未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +968,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,16 +1123,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1304,16 +1304,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
         <v>113</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,13 +1477,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,15 +2220,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="35.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
